--- a/inst/extdata/multi-test.xlsx
+++ b/inst/extdata/multi-test.xlsx
@@ -92,7 +92,7 @@
     <t>quot</t>
   </si>
   <si>
-    <t/>
+    <t>'</t>
   </si>
   <si>
     <t>apos</t>
